--- a/cpsv-ap.xlsx
+++ b/cpsv-ap.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estani002\shacl2spreadsheet\shacl2spreadsheet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C171848C-AD06-4C8B-B0C8-69FF344CB2A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="14" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Address" sheetId="1" r:id="rId1"/>
@@ -37,12 +31,12 @@
     <sheet name="Requirement" sheetId="22" r:id="rId22"/>
     <sheet name="Rule" sheetId="23" r:id="rId23"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="120">
   <si>
     <t>Class URI</t>
   </si>
@@ -402,43 +396,13 @@
   </si>
   <si>
     <t>cpsv:implements</t>
-  </si>
-  <si>
-    <t>http://myservice.com/1</t>
-  </si>
-  <si>
-    <t>cpsv:PublicService</t>
-  </si>
-  <si>
-    <t>This is a test</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Follows</t>
-  </si>
-  <si>
-    <t>DCTType</t>
-  </si>
-  <si>
-    <t>Channel</t>
-  </si>
-  <si>
-    <t>CompetentAuhority</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,14 +468,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -558,7 +514,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -590,27 +546,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -642,24 +580,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -835,19 +755,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="8" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
     <col min="10" max="10" width="22.5703125" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" customWidth="1"/>
@@ -856,7 +778,7 @@
     <col min="14" max="14" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -864,7 +786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -875,7 +797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -886,7 +808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -897,7 +819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -908,7 +830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -919,7 +841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -930,7 +852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -941,7 +863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -952,7 +874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -963,7 +885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -974,7 +896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -985,7 +907,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -996,7 +918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1007,7 +929,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1018,7 +940,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -1064,33 +986,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" location="Address" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B1" r:id="rId1" location="Address"/>
+    <hyperlink ref="C2" r:id="rId2" location=""/>
+    <hyperlink ref="C3" r:id="rId3" location=""/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7" location=""/>
+    <hyperlink ref="C8" r:id="rId8" location=""/>
+    <hyperlink ref="C9" r:id="rId9" location=""/>
+    <hyperlink ref="C10" r:id="rId10" location=""/>
+    <hyperlink ref="C11" r:id="rId11" location=""/>
+    <hyperlink ref="C12" r:id="rId12" location=""/>
+    <hyperlink ref="C13" r:id="rId13" location=""/>
+    <hyperlink ref="C14" r:id="rId14" location=""/>
+    <hyperlink ref="C15" r:id="rId15" location=""/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="35.28515625" customWidth="1"/>
@@ -1102,7 +1024,7 @@
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1032,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1121,7 +1043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1132,7 +1054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1143,7 +1065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1154,7 +1076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1165,7 +1087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1176,7 +1098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1187,7 +1109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1198,7 +1120,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -1209,7 +1131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1220,7 +1142,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1231,7 +1153,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1242,7 +1164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1253,7 +1175,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1264,7 +1186,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -1292,33 +1214,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0900-000004000000}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0900-000006000000}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-0900-000007000000}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{00000000-0004-0000-0900-000008000000}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{00000000-0004-0000-0900-000009000000}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{00000000-0004-0000-0900-00000A000000}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{00000000-0004-0000-0900-00000B000000}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{00000000-0004-0000-0900-00000C000000}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-0900-00000D000000}"/>
-    <hyperlink ref="C15" r:id="rId15" xr:uid="{00000000-0004-0000-0900-00000E000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2" location=""/>
+    <hyperlink ref="C3" r:id="rId3" location=""/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7" location=""/>
+    <hyperlink ref="C8" r:id="rId8" location=""/>
+    <hyperlink ref="C9" r:id="rId9" location=""/>
+    <hyperlink ref="C10" r:id="rId10" location=""/>
+    <hyperlink ref="C11" r:id="rId11" location=""/>
+    <hyperlink ref="C12" r:id="rId12" location=""/>
+    <hyperlink ref="C13" r:id="rId13" location=""/>
+    <hyperlink ref="C14" r:id="rId14" location=""/>
+    <hyperlink ref="C15" r:id="rId15" location=""/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" customWidth="1"/>
@@ -1330,7 +1252,7 @@
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1338,7 +1260,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1349,7 +1271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1360,7 +1282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1371,7 +1293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1382,7 +1304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1393,7 +1315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1404,7 +1326,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1415,7 +1337,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1426,7 +1348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -1437,7 +1359,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1448,7 +1370,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1459,7 +1381,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1470,7 +1392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1481,7 +1403,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1492,7 +1414,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -1520,43 +1442,44 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" location="Dataset" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0A00-000004000000}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0A00-000005000000}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0A00-000006000000}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-0A00-000007000000}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{00000000-0004-0000-0A00-000008000000}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{00000000-0004-0000-0A00-000009000000}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{00000000-0004-0000-0A00-00000A000000}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{00000000-0004-0000-0A00-00000B000000}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{00000000-0004-0000-0A00-00000C000000}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-0A00-00000D000000}"/>
-    <hyperlink ref="C15" r:id="rId15" xr:uid="{00000000-0004-0000-0A00-00000E000000}"/>
+    <hyperlink ref="B1" r:id="rId1" location="Dataset"/>
+    <hyperlink ref="C2" r:id="rId2" location=""/>
+    <hyperlink ref="C3" r:id="rId3" location=""/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7" location=""/>
+    <hyperlink ref="C8" r:id="rId8" location=""/>
+    <hyperlink ref="C9" r:id="rId9" location=""/>
+    <hyperlink ref="C10" r:id="rId10" location=""/>
+    <hyperlink ref="C11" r:id="rId11" location=""/>
+    <hyperlink ref="C12" r:id="rId12" location=""/>
+    <hyperlink ref="C13" r:id="rId13" location=""/>
+    <hyperlink ref="C14" r:id="rId14" location=""/>
+    <hyperlink ref="C15" r:id="rId15" location=""/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="6" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1564,7 +1487,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1575,7 +1498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1586,7 +1509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1597,7 +1520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1608,7 +1531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1619,7 +1542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1630,7 +1553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1641,7 +1564,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1652,7 +1575,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -1663,7 +1586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1674,7 +1597,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1685,7 +1608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1696,7 +1619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1707,7 +1630,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1718,7 +1641,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -1743,45 +1666,46 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0B00-000003000000}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0B00-000004000000}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0B00-000005000000}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0B00-000006000000}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-0B00-000007000000}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{00000000-0004-0000-0B00-000008000000}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{00000000-0004-0000-0B00-000009000000}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{00000000-0004-0000-0B00-00000A000000}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{00000000-0004-0000-0B00-00000B000000}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{00000000-0004-0000-0B00-00000C000000}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-0B00-00000D000000}"/>
-    <hyperlink ref="C15" r:id="rId15" xr:uid="{00000000-0004-0000-0B00-00000E000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2" location=""/>
+    <hyperlink ref="C3" r:id="rId3" location=""/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7" location=""/>
+    <hyperlink ref="C8" r:id="rId8" location=""/>
+    <hyperlink ref="C9" r:id="rId9" location=""/>
+    <hyperlink ref="C10" r:id="rId10" location=""/>
+    <hyperlink ref="C11" r:id="rId11" location=""/>
+    <hyperlink ref="C12" r:id="rId12" location=""/>
+    <hyperlink ref="C13" r:id="rId13" location=""/>
+    <hyperlink ref="C14" r:id="rId14" location=""/>
+    <hyperlink ref="C15" r:id="rId15" location=""/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="39.85546875" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="6" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1789,7 +1713,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1800,7 +1724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1811,7 +1735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1822,7 +1746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1833,7 +1757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1844,7 +1768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1855,7 +1779,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1866,7 +1790,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1877,7 +1801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -1888,7 +1812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1899,7 +1823,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1910,7 +1834,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1921,7 +1845,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1932,7 +1856,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1943,7 +1867,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -1974,40 +1898,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0C00-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0C00-000003000000}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0C00-000004000000}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0C00-000005000000}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0C00-000006000000}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-0C00-000007000000}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{00000000-0004-0000-0C00-000008000000}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{00000000-0004-0000-0C00-000009000000}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{00000000-0004-0000-0C00-00000A000000}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{00000000-0004-0000-0C00-00000B000000}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{00000000-0004-0000-0C00-00000C000000}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-0C00-00000D000000}"/>
-    <hyperlink ref="C15" r:id="rId15" xr:uid="{00000000-0004-0000-0C00-00000E000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2" location=""/>
+    <hyperlink ref="C3" r:id="rId3" location=""/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7" location=""/>
+    <hyperlink ref="C8" r:id="rId8" location=""/>
+    <hyperlink ref="C9" r:id="rId9" location=""/>
+    <hyperlink ref="C10" r:id="rId10" location=""/>
+    <hyperlink ref="C11" r:id="rId11" location=""/>
+    <hyperlink ref="C12" r:id="rId12" location=""/>
+    <hyperlink ref="C13" r:id="rId13" location=""/>
+    <hyperlink ref="C14" r:id="rId14" location=""/>
+    <hyperlink ref="C15" r:id="rId15" location=""/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="55.85546875" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2015,7 +1939,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2026,7 +1950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2037,7 +1961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2048,7 +1972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2059,7 +1983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2070,7 +1994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -2081,7 +2005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -2092,7 +2016,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -2103,7 +2027,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -2114,7 +2038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -2125,7 +2049,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -2136,7 +2060,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -2147,7 +2071,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2158,7 +2082,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -2169,7 +2093,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -2182,40 +2106,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" location="LegalResource" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0D00-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0D00-000003000000}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0D00-000004000000}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0D00-000005000000}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0D00-000006000000}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-0D00-000007000000}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{00000000-0004-0000-0D00-000008000000}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{00000000-0004-0000-0D00-000009000000}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{00000000-0004-0000-0D00-00000A000000}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{00000000-0004-0000-0D00-00000B000000}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{00000000-0004-0000-0D00-00000C000000}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-0D00-00000D000000}"/>
-    <hyperlink ref="C15" r:id="rId15" xr:uid="{00000000-0004-0000-0D00-00000E000000}"/>
+    <hyperlink ref="B1" r:id="rId1" location="LegalResource"/>
+    <hyperlink ref="C2" r:id="rId2" location=""/>
+    <hyperlink ref="C3" r:id="rId3" location=""/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7" location=""/>
+    <hyperlink ref="C8" r:id="rId8" location=""/>
+    <hyperlink ref="C9" r:id="rId9" location=""/>
+    <hyperlink ref="C10" r:id="rId10" location=""/>
+    <hyperlink ref="C11" r:id="rId11" location=""/>
+    <hyperlink ref="C12" r:id="rId12" location=""/>
+    <hyperlink ref="C13" r:id="rId13" location=""/>
+    <hyperlink ref="C14" r:id="rId14" location=""/>
+    <hyperlink ref="C15" r:id="rId15" location=""/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2223,7 +2147,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2234,7 +2158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2245,7 +2169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2256,7 +2180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2267,7 +2191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2278,7 +2202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -2289,7 +2213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -2300,7 +2224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -2311,7 +2235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -2322,7 +2246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -2333,7 +2257,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -2344,7 +2268,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -2355,7 +2279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2366,7 +2290,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -2377,7 +2301,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -2387,40 +2311,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0E00-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0E00-000003000000}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0E00-000004000000}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0E00-000005000000}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0E00-000006000000}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-0E00-000007000000}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{00000000-0004-0000-0E00-000008000000}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{00000000-0004-0000-0E00-000009000000}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{00000000-0004-0000-0E00-00000A000000}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{00000000-0004-0000-0E00-00000B000000}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{00000000-0004-0000-0E00-00000C000000}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-0E00-00000D000000}"/>
-    <hyperlink ref="C15" r:id="rId15" xr:uid="{00000000-0004-0000-0E00-00000E000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2" location=""/>
+    <hyperlink ref="C3" r:id="rId3" location=""/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7" location=""/>
+    <hyperlink ref="C8" r:id="rId8" location=""/>
+    <hyperlink ref="C9" r:id="rId9" location=""/>
+    <hyperlink ref="C10" r:id="rId10" location=""/>
+    <hyperlink ref="C11" r:id="rId11" location=""/>
+    <hyperlink ref="C12" r:id="rId12" location=""/>
+    <hyperlink ref="C13" r:id="rId13" location=""/>
+    <hyperlink ref="C14" r:id="rId14" location=""/>
+    <hyperlink ref="C15" r:id="rId15" location=""/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="59.42578125" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2428,7 +2352,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2439,7 +2363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2450,7 +2374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2461,7 +2385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2472,7 +2396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2483,7 +2407,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -2494,7 +2418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -2505,7 +2429,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -2516,7 +2440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -2527,7 +2451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -2538,7 +2462,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -2549,7 +2473,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -2560,7 +2484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2571,7 +2495,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -2582,7 +2506,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -2592,39 +2516,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0F00-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0F00-000003000000}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0F00-000004000000}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0F00-000005000000}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0F00-000006000000}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-0F00-000007000000}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{00000000-0004-0000-0F00-000008000000}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{00000000-0004-0000-0F00-000009000000}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{00000000-0004-0000-0F00-00000A000000}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{00000000-0004-0000-0F00-00000B000000}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{00000000-0004-0000-0F00-00000C000000}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-0F00-00000D000000}"/>
-    <hyperlink ref="C15" r:id="rId15" xr:uid="{00000000-0004-0000-0F00-00000E000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2" location=""/>
+    <hyperlink ref="C3" r:id="rId3" location=""/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7" location=""/>
+    <hyperlink ref="C8" r:id="rId8" location=""/>
+    <hyperlink ref="C9" r:id="rId9" location=""/>
+    <hyperlink ref="C10" r:id="rId10" location=""/>
+    <hyperlink ref="C11" r:id="rId11" location=""/>
+    <hyperlink ref="C12" r:id="rId12" location=""/>
+    <hyperlink ref="C13" r:id="rId13" location=""/>
+    <hyperlink ref="C14" r:id="rId14" location=""/>
+    <hyperlink ref="C15" r:id="rId15" location=""/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="3" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2632,7 +2557,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2643,7 +2568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2654,7 +2579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2665,7 +2590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2676,7 +2601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2687,7 +2612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -2698,7 +2623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -2709,7 +2634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -2720,7 +2645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -2731,7 +2656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -2742,7 +2667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -2753,7 +2678,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -2764,7 +2689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2775,7 +2700,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -2786,7 +2711,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -2796,43 +2721,44 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" location="Organization" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-1000-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-1000-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-1000-000003000000}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-1000-000004000000}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-1000-000005000000}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-1000-000006000000}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-1000-000007000000}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{00000000-0004-0000-1000-000008000000}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{00000000-0004-0000-1000-000009000000}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{00000000-0004-0000-1000-00000A000000}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{00000000-0004-0000-1000-00000B000000}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{00000000-0004-0000-1000-00000C000000}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-1000-00000D000000}"/>
-    <hyperlink ref="C15" r:id="rId15" xr:uid="{00000000-0004-0000-1000-00000E000000}"/>
+    <hyperlink ref="B1" r:id="rId1" location="Organization"/>
+    <hyperlink ref="C2" r:id="rId2" location=""/>
+    <hyperlink ref="C3" r:id="rId3" location=""/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7" location=""/>
+    <hyperlink ref="C8" r:id="rId8" location=""/>
+    <hyperlink ref="C9" r:id="rId9" location=""/>
+    <hyperlink ref="C10" r:id="rId10" location=""/>
+    <hyperlink ref="C11" r:id="rId11" location=""/>
+    <hyperlink ref="C12" r:id="rId12" location=""/>
+    <hyperlink ref="C13" r:id="rId13" location=""/>
+    <hyperlink ref="C14" r:id="rId14" location=""/>
+    <hyperlink ref="C15" r:id="rId15" location=""/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="6" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2840,7 +2766,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2851,7 +2777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2862,7 +2788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2873,7 +2799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2884,7 +2810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2895,7 +2821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -2906,7 +2832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -2917,7 +2843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -2928,7 +2854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -2939,7 +2865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -2950,7 +2876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -2961,7 +2887,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -2972,7 +2898,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2983,7 +2909,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -2994,7 +2920,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -3019,33 +2945,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-1100-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-1100-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-1100-000003000000}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-1100-000004000000}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-1100-000005000000}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-1100-000006000000}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-1100-000007000000}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{00000000-0004-0000-1100-000008000000}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{00000000-0004-0000-1100-000009000000}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{00000000-0004-0000-1100-00000A000000}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{00000000-0004-0000-1100-00000B000000}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{00000000-0004-0000-1100-00000C000000}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-1100-00000D000000}"/>
-    <hyperlink ref="C15" r:id="rId15" xr:uid="{00000000-0004-0000-1100-00000E000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2" location=""/>
+    <hyperlink ref="C3" r:id="rId3" location=""/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7" location=""/>
+    <hyperlink ref="C8" r:id="rId8" location=""/>
+    <hyperlink ref="C9" r:id="rId9" location=""/>
+    <hyperlink ref="C10" r:id="rId10" location=""/>
+    <hyperlink ref="C11" r:id="rId11" location=""/>
+    <hyperlink ref="C12" r:id="rId12" location=""/>
+    <hyperlink ref="C13" r:id="rId13" location=""/>
+    <hyperlink ref="C14" r:id="rId14" location=""/>
+    <hyperlink ref="C15" r:id="rId15" location=""/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="45.5703125" customWidth="1"/>
@@ -3054,7 +2980,7 @@
     <col min="5" max="5" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3062,7 +2988,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3073,7 +2999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3084,7 +3010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3095,7 +3021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3106,7 +3032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -3117,7 +3043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -3128,7 +3054,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -3139,7 +3065,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -3150,7 +3076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -3161,7 +3087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -3172,7 +3098,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -3183,7 +3109,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -3194,7 +3120,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -3205,7 +3131,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -3216,7 +3142,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -3235,42 +3161,43 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-1200-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-1200-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-1200-000003000000}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-1200-000004000000}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-1200-000005000000}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-1200-000006000000}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-1200-000007000000}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{00000000-0004-0000-1200-000008000000}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{00000000-0004-0000-1200-000009000000}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{00000000-0004-0000-1200-00000A000000}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{00000000-0004-0000-1200-00000B000000}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{00000000-0004-0000-1200-00000C000000}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-1200-00000D000000}"/>
-    <hyperlink ref="C15" r:id="rId15" xr:uid="{00000000-0004-0000-1200-00000E000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2" location=""/>
+    <hyperlink ref="C3" r:id="rId3" location=""/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7" location=""/>
+    <hyperlink ref="C8" r:id="rId8" location=""/>
+    <hyperlink ref="C9" r:id="rId9" location=""/>
+    <hyperlink ref="C10" r:id="rId10" location=""/>
+    <hyperlink ref="C11" r:id="rId11" location=""/>
+    <hyperlink ref="C12" r:id="rId12" location=""/>
+    <hyperlink ref="C13" r:id="rId13" location=""/>
+    <hyperlink ref="C14" r:id="rId14" location=""/>
+    <hyperlink ref="C15" r:id="rId15" location=""/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="6" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3278,7 +3205,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3289,7 +3216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3300,7 +3227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3311,7 +3238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3322,7 +3249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -3333,7 +3260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -3344,7 +3271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -3355,7 +3282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -3366,7 +3293,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -3377,7 +3304,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -3388,7 +3315,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -3399,7 +3326,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -3410,7 +3337,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -3421,7 +3348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -3432,7 +3359,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -3454,33 +3381,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="C15" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2" location=""/>
+    <hyperlink ref="C3" r:id="rId3" location=""/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7" location=""/>
+    <hyperlink ref="C8" r:id="rId8" location=""/>
+    <hyperlink ref="C9" r:id="rId9" location=""/>
+    <hyperlink ref="C10" r:id="rId10" location=""/>
+    <hyperlink ref="C11" r:id="rId11" location=""/>
+    <hyperlink ref="C12" r:id="rId12" location=""/>
+    <hyperlink ref="C13" r:id="rId13" location=""/>
+    <hyperlink ref="C14" r:id="rId14" location=""/>
+    <hyperlink ref="C15" r:id="rId15" location=""/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="51.28515625" customWidth="1"/>
@@ -3488,7 +3415,7 @@
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3496,7 +3423,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3507,7 +3434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3518,7 +3445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3529,7 +3456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3540,7 +3467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -3551,7 +3478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -3562,7 +3489,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -3573,7 +3500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -3584,7 +3511,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -3595,7 +3522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -3606,7 +3533,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -3617,7 +3544,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -3628,7 +3555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -3639,7 +3566,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -3650,7 +3577,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -3666,35 +3593,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-1300-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-1300-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-1300-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-1300-000003000000}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-1300-000004000000}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-1300-000005000000}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-1300-000006000000}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-1300-000007000000}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{00000000-0004-0000-1300-000008000000}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{00000000-0004-0000-1300-000009000000}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{00000000-0004-0000-1300-00000A000000}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{00000000-0004-0000-1300-00000B000000}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{00000000-0004-0000-1300-00000C000000}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-1300-00000D000000}"/>
-    <hyperlink ref="C15" r:id="rId15" xr:uid="{00000000-0004-0000-1300-00000E000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2" location=""/>
+    <hyperlink ref="C3" r:id="rId3" location=""/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7" location=""/>
+    <hyperlink ref="C8" r:id="rId8" location=""/>
+    <hyperlink ref="C9" r:id="rId9" location=""/>
+    <hyperlink ref="C10" r:id="rId10" location=""/>
+    <hyperlink ref="C11" r:id="rId11" location=""/>
+    <hyperlink ref="C12" r:id="rId12" location=""/>
+    <hyperlink ref="C13" r:id="rId13" location=""/>
+    <hyperlink ref="C14" r:id="rId14" location=""/>
+    <hyperlink ref="C15" r:id="rId15" location=""/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:AB19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="46.7109375" customWidth="1"/>
@@ -3706,22 +3631,27 @@
     <col min="8" max="8" width="21.42578125" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="13" width="22.5703125" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" customWidth="1"/>
     <col min="14" max="14" width="16.85546875" customWidth="1"/>
     <col min="15" max="15" width="20.28515625" customWidth="1"/>
     <col min="16" max="16" width="19.140625" customWidth="1"/>
     <col min="17" max="17" width="16.85546875" customWidth="1"/>
     <col min="18" max="18" width="18" customWidth="1"/>
-    <col min="19" max="20" width="14.5703125" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" customWidth="1"/>
     <col min="21" max="21" width="20.28515625" customWidth="1"/>
     <col min="22" max="22" width="15.7109375" customWidth="1"/>
-    <col min="23" max="24" width="14.5703125" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" customWidth="1"/>
     <col min="25" max="25" width="11" customWidth="1"/>
-    <col min="26" max="27" width="13.42578125" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" customWidth="1"/>
     <col min="28" max="28" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3729,7 +3659,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3740,7 +3670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3751,7 +3681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3762,7 +3692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3773,7 +3703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -3784,7 +3714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -3795,7 +3725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -3806,7 +3736,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -3817,7 +3747,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -3828,7 +3758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -3839,7 +3769,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -3850,7 +3780,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -3861,7 +3791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -3872,7 +3802,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -3883,166 +3813,132 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" t="s">
-        <v>128</v>
-      </c>
-      <c r="G17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="17" spans="1:28">
+      <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="O17" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="R17" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="S17" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="T17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="U18" s="3" t="s">
+      <c r="U17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="V17" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="W18" s="3" t="s">
+      <c r="W17" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="X18" s="3" t="s">
+      <c r="X17" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Y18" s="3" t="s">
+      <c r="Y17" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="Z18" s="3" t="s">
+      <c r="Z17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AA18" s="3" t="s">
+      <c r="AA17" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AB18" s="3" t="s">
+      <c r="AB17" s="3" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" location="PublicService" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-1400-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-1400-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-1400-000003000000}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-1400-000004000000}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-1400-000005000000}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-1400-000006000000}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-1400-000007000000}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{00000000-0004-0000-1400-000008000000}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{00000000-0004-0000-1400-000009000000}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{00000000-0004-0000-1400-00000A000000}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{00000000-0004-0000-1400-00000B000000}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{00000000-0004-0000-1400-00000C000000}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-1400-00000D000000}"/>
-    <hyperlink ref="C15" r:id="rId15" xr:uid="{00000000-0004-0000-1400-00000E000000}"/>
-    <hyperlink ref="A19" r:id="rId16" xr:uid="{F66301E9-C21D-46F0-B132-F2C60F6001CA}"/>
+    <hyperlink ref="B1" r:id="rId1" location="PublicService"/>
+    <hyperlink ref="C2" r:id="rId2" location=""/>
+    <hyperlink ref="C3" r:id="rId3" location=""/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7" location=""/>
+    <hyperlink ref="C8" r:id="rId8" location=""/>
+    <hyperlink ref="C9" r:id="rId9" location=""/>
+    <hyperlink ref="C10" r:id="rId10" location=""/>
+    <hyperlink ref="C11" r:id="rId11" location=""/>
+    <hyperlink ref="C12" r:id="rId12" location=""/>
+    <hyperlink ref="C13" r:id="rId13" location=""/>
+    <hyperlink ref="C14" r:id="rId14" location=""/>
+    <hyperlink ref="C15" r:id="rId15" location=""/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="3" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" customWidth="1"/>
     <col min="4" max="4" width="28.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4050,7 +3946,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4061,7 +3957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4072,7 +3968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4083,7 +3979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -4094,7 +3990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -4105,7 +4001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -4116,7 +4012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -4127,7 +4023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -4138,7 +4034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -4149,7 +4045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -4160,7 +4056,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -4171,7 +4067,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -4182,7 +4078,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -4193,7 +4089,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -4204,7 +4100,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -4229,44 +4125,45 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-1500-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-1500-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-1500-000003000000}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-1500-000004000000}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-1500-000005000000}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-1500-000006000000}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-1500-000007000000}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{00000000-0004-0000-1500-000008000000}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{00000000-0004-0000-1500-000009000000}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{00000000-0004-0000-1500-00000A000000}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{00000000-0004-0000-1500-00000B000000}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{00000000-0004-0000-1500-00000C000000}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-1500-00000D000000}"/>
-    <hyperlink ref="C15" r:id="rId15" xr:uid="{00000000-0004-0000-1500-00000E000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2" location=""/>
+    <hyperlink ref="C3" r:id="rId3" location=""/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7" location=""/>
+    <hyperlink ref="C8" r:id="rId8" location=""/>
+    <hyperlink ref="C9" r:id="rId9" location=""/>
+    <hyperlink ref="C10" r:id="rId10" location=""/>
+    <hyperlink ref="C11" r:id="rId11" location=""/>
+    <hyperlink ref="C12" r:id="rId12" location=""/>
+    <hyperlink ref="C13" r:id="rId13" location=""/>
+    <hyperlink ref="C14" r:id="rId14" location=""/>
+    <hyperlink ref="C15" r:id="rId15" location=""/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="7" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4274,7 +4171,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4285,7 +4182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4296,7 +4193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4307,7 +4204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -4318,7 +4215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -4329,7 +4226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -4340,7 +4237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -4351,7 +4248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -4362,7 +4259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -4373,7 +4270,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -4384,7 +4281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -4395,7 +4292,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -4406,7 +4303,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -4417,7 +4314,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -4428,7 +4325,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -4456,40 +4353,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" location="Rule" xr:uid="{00000000-0004-0000-1600-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-1600-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-1600-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-1600-000003000000}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-1600-000004000000}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-1600-000005000000}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-1600-000006000000}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-1600-000007000000}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{00000000-0004-0000-1600-000008000000}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{00000000-0004-0000-1600-000009000000}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{00000000-0004-0000-1600-00000A000000}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{00000000-0004-0000-1600-00000B000000}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{00000000-0004-0000-1600-00000C000000}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-1600-00000D000000}"/>
-    <hyperlink ref="C15" r:id="rId15" xr:uid="{00000000-0004-0000-1600-00000E000000}"/>
+    <hyperlink ref="B1" r:id="rId1" location="Rule"/>
+    <hyperlink ref="C2" r:id="rId2" location=""/>
+    <hyperlink ref="C3" r:id="rId3" location=""/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7" location=""/>
+    <hyperlink ref="C8" r:id="rId8" location=""/>
+    <hyperlink ref="C9" r:id="rId9" location=""/>
+    <hyperlink ref="C10" r:id="rId10" location=""/>
+    <hyperlink ref="C11" r:id="rId11" location=""/>
+    <hyperlink ref="C12" r:id="rId12" location=""/>
+    <hyperlink ref="C13" r:id="rId13" location=""/>
+    <hyperlink ref="C14" r:id="rId14" location=""/>
+    <hyperlink ref="C15" r:id="rId15" location=""/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="45.5703125" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4497,7 +4394,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4508,7 +4405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4519,7 +4416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4530,7 +4427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -4541,7 +4438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -4552,7 +4449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -4563,7 +4460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -4574,7 +4471,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -4585,7 +4482,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -4596,7 +4493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -4607,7 +4504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -4618,7 +4515,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -4629,7 +4526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -4640,7 +4537,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -4651,7 +4548,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -4661,33 +4558,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="C15" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2" location=""/>
+    <hyperlink ref="C3" r:id="rId3" location=""/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7" location=""/>
+    <hyperlink ref="C8" r:id="rId8" location=""/>
+    <hyperlink ref="C9" r:id="rId9" location=""/>
+    <hyperlink ref="C10" r:id="rId10" location=""/>
+    <hyperlink ref="C11" r:id="rId11" location=""/>
+    <hyperlink ref="C12" r:id="rId12" location=""/>
+    <hyperlink ref="C13" r:id="rId13" location=""/>
+    <hyperlink ref="C14" r:id="rId14" location=""/>
+    <hyperlink ref="C15" r:id="rId15" location=""/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" customWidth="1"/>
@@ -4701,7 +4598,7 @@
     <col min="10" max="10" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4709,7 +4606,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4720,7 +4617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4731,7 +4628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4742,7 +4639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -4753,7 +4650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -4764,7 +4661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -4775,7 +4672,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -4786,7 +4683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -4797,7 +4694,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -4808,7 +4705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -4819,7 +4716,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -4830,7 +4727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -4841,7 +4738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -4852,7 +4749,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -4863,7 +4760,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -4897,40 +4794,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
-    <hyperlink ref="C15" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2" location=""/>
+    <hyperlink ref="C3" r:id="rId3" location=""/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7" location=""/>
+    <hyperlink ref="C8" r:id="rId8" location=""/>
+    <hyperlink ref="C9" r:id="rId9" location=""/>
+    <hyperlink ref="C10" r:id="rId10" location=""/>
+    <hyperlink ref="C11" r:id="rId11" location=""/>
+    <hyperlink ref="C12" r:id="rId12" location=""/>
+    <hyperlink ref="C13" r:id="rId13" location=""/>
+    <hyperlink ref="C14" r:id="rId14" location=""/>
+    <hyperlink ref="C15" r:id="rId15" location=""/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="53.5703125" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4938,7 +4835,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4949,7 +4846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4960,7 +4857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4971,7 +4868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -4982,7 +4879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -4993,7 +4890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -5004,7 +4901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -5015,7 +4912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -5026,7 +4923,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -5037,7 +4934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -5048,7 +4945,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -5059,7 +4956,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -5070,7 +4967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -5081,7 +4978,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -5092,7 +4989,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -5105,40 +5002,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" location="Collection" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
-    <hyperlink ref="C15" r:id="rId15" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
+    <hyperlink ref="B1" r:id="rId1" location="Collection"/>
+    <hyperlink ref="C2" r:id="rId2" location=""/>
+    <hyperlink ref="C3" r:id="rId3" location=""/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7" location=""/>
+    <hyperlink ref="C8" r:id="rId8" location=""/>
+    <hyperlink ref="C9" r:id="rId9" location=""/>
+    <hyperlink ref="C10" r:id="rId10" location=""/>
+    <hyperlink ref="C11" r:id="rId11" location=""/>
+    <hyperlink ref="C12" r:id="rId12" location=""/>
+    <hyperlink ref="C13" r:id="rId13" location=""/>
+    <hyperlink ref="C14" r:id="rId14" location=""/>
+    <hyperlink ref="C15" r:id="rId15" location=""/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="50.140625" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5146,7 +5043,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -5157,7 +5054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5168,7 +5065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5179,7 +5076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -5190,7 +5087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -5201,7 +5098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -5212,7 +5109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -5223,7 +5120,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -5234,7 +5131,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -5245,7 +5142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -5256,7 +5153,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -5267,7 +5164,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -5278,7 +5175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -5289,7 +5186,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -5300,7 +5197,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -5310,33 +5207,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" location="Concept" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
-    <hyperlink ref="C15" r:id="rId15" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
+    <hyperlink ref="B1" r:id="rId1" location="Concept"/>
+    <hyperlink ref="C2" r:id="rId2" location=""/>
+    <hyperlink ref="C3" r:id="rId3" location=""/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7" location=""/>
+    <hyperlink ref="C8" r:id="rId8" location=""/>
+    <hyperlink ref="C9" r:id="rId9" location=""/>
+    <hyperlink ref="C10" r:id="rId10" location=""/>
+    <hyperlink ref="C11" r:id="rId11" location=""/>
+    <hyperlink ref="C12" r:id="rId12" location=""/>
+    <hyperlink ref="C13" r:id="rId13" location=""/>
+    <hyperlink ref="C14" r:id="rId14" location=""/>
+    <hyperlink ref="C15" r:id="rId15" location=""/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="51.28515625" customWidth="1"/>
@@ -5348,7 +5245,7 @@
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5356,7 +5253,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -5367,7 +5264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5378,7 +5275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5389,7 +5286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -5400,7 +5297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -5411,7 +5308,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -5422,7 +5319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -5433,7 +5330,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -5444,7 +5341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -5455,7 +5352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -5466,7 +5363,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -5477,7 +5374,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -5488,7 +5385,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -5499,7 +5396,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -5510,7 +5407,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -5538,43 +5435,44 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
-    <hyperlink ref="C15" r:id="rId15" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2" location=""/>
+    <hyperlink ref="C3" r:id="rId3" location=""/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7" location=""/>
+    <hyperlink ref="C8" r:id="rId8" location=""/>
+    <hyperlink ref="C9" r:id="rId9" location=""/>
+    <hyperlink ref="C10" r:id="rId10" location=""/>
+    <hyperlink ref="C11" r:id="rId11" location=""/>
+    <hyperlink ref="C12" r:id="rId12" location=""/>
+    <hyperlink ref="C13" r:id="rId13" location=""/>
+    <hyperlink ref="C14" r:id="rId14" location=""/>
+    <hyperlink ref="C15" r:id="rId15" location=""/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="44.42578125" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="7" width="18" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5582,7 +5480,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -5593,7 +5491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5604,7 +5502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5615,7 +5513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -5626,7 +5524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -5637,7 +5535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -5648,7 +5546,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -5659,7 +5557,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -5670,7 +5568,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -5681,7 +5579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -5692,7 +5590,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -5703,7 +5601,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -5714,7 +5612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -5725,7 +5623,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -5736,7 +5634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -5761,40 +5659,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{00000000-0004-0000-0700-00000B000000}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{00000000-0004-0000-0700-00000C000000}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-0700-00000D000000}"/>
-    <hyperlink ref="C15" r:id="rId15" xr:uid="{00000000-0004-0000-0700-00000E000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2" location=""/>
+    <hyperlink ref="C3" r:id="rId3" location=""/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7" location=""/>
+    <hyperlink ref="C8" r:id="rId8" location=""/>
+    <hyperlink ref="C9" r:id="rId9" location=""/>
+    <hyperlink ref="C10" r:id="rId10" location=""/>
+    <hyperlink ref="C11" r:id="rId11" location=""/>
+    <hyperlink ref="C12" r:id="rId12" location=""/>
+    <hyperlink ref="C13" r:id="rId13" location=""/>
+    <hyperlink ref="C14" r:id="rId14" location=""/>
+    <hyperlink ref="C15" r:id="rId15" location=""/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="50.140625" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5802,7 +5700,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -5813,7 +5711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5824,7 +5722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5835,7 +5733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -5846,7 +5744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -5857,7 +5755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -5868,7 +5766,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -5879,7 +5777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -5890,7 +5788,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -5901,7 +5799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -5912,7 +5810,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -5923,7 +5821,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -5934,7 +5832,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -5945,7 +5843,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -5956,7 +5854,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -5966,21 +5864,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" location="Contract" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0800-000006000000}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-0800-000007000000}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{00000000-0004-0000-0800-000008000000}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{00000000-0004-0000-0800-000009000000}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{00000000-0004-0000-0800-00000A000000}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{00000000-0004-0000-0800-00000B000000}"/>
-    <hyperlink ref="C13" r:id="rId13" xr:uid="{00000000-0004-0000-0800-00000C000000}"/>
-    <hyperlink ref="C14" r:id="rId14" xr:uid="{00000000-0004-0000-0800-00000D000000}"/>
-    <hyperlink ref="C15" r:id="rId15" xr:uid="{00000000-0004-0000-0800-00000E000000}"/>
+    <hyperlink ref="B1" r:id="rId1" location="Contract"/>
+    <hyperlink ref="C2" r:id="rId2" location=""/>
+    <hyperlink ref="C3" r:id="rId3" location=""/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7" location=""/>
+    <hyperlink ref="C8" r:id="rId8" location=""/>
+    <hyperlink ref="C9" r:id="rId9" location=""/>
+    <hyperlink ref="C10" r:id="rId10" location=""/>
+    <hyperlink ref="C11" r:id="rId11" location=""/>
+    <hyperlink ref="C12" r:id="rId12" location=""/>
+    <hyperlink ref="C13" r:id="rId13" location=""/>
+    <hyperlink ref="C14" r:id="rId14" location=""/>
+    <hyperlink ref="C15" r:id="rId15" location=""/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cpsv-ap.xlsx
+++ b/cpsv-ap.xlsx
@@ -767,9 +767,7 @@
     <col min="3" max="3" width="43.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="6" max="8" width="22.5703125" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
     <col min="10" max="10" width="22.5703125" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" customWidth="1"/>
@@ -1474,8 +1472,7 @@
     <col min="2" max="2" width="36.42578125" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="5" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1698,8 +1695,7 @@
     <col min="2" max="2" width="39.85546875" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="5" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" customWidth="1"/>
@@ -2545,8 +2541,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" customWidth="1"/>
+    <col min="2" max="3" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2753,8 +2748,7 @@
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="5" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3193,8 +3187,7 @@
     <col min="2" max="2" width="36.42578125" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="5" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3631,23 +3624,18 @@
     <col min="8" max="8" width="21.42578125" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" customWidth="1"/>
-    <col min="12" max="12" width="22.5703125" customWidth="1"/>
-    <col min="13" max="13" width="22.5703125" customWidth="1"/>
+    <col min="11" max="13" width="22.5703125" customWidth="1"/>
     <col min="14" max="14" width="16.85546875" customWidth="1"/>
     <col min="15" max="15" width="20.28515625" customWidth="1"/>
     <col min="16" max="16" width="19.140625" customWidth="1"/>
     <col min="17" max="17" width="16.85546875" customWidth="1"/>
     <col min="18" max="18" width="18" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" customWidth="1"/>
+    <col min="19" max="20" width="14.5703125" customWidth="1"/>
     <col min="21" max="21" width="20.28515625" customWidth="1"/>
     <col min="22" max="22" width="15.7109375" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" customWidth="1"/>
+    <col min="23" max="24" width="14.5703125" customWidth="1"/>
     <col min="25" max="25" width="11" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" customWidth="1"/>
+    <col min="26" max="27" width="13.42578125" customWidth="1"/>
     <col min="28" max="28" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3930,8 +3918,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" customWidth="1"/>
+    <col min="2" max="3" width="43.28515625" customWidth="1"/>
     <col min="4" max="4" width="28.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
@@ -4158,8 +4145,7 @@
     <col min="3" max="3" width="43.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="6" max="7" width="14.5703125" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5468,8 +5454,7 @@
     <col min="3" max="3" width="43.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="6" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
